--- a/data/order.xlsx
+++ b/data/order.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\QQ下载文件\MathorCup大数据竞赛资料\代码\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E99808B-71A1-4441-BB8F-52A38742C63B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C34B600E-856F-460F-81E1-0DDD3E0AC894}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2268" yWindow="2268" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -462,7 +462,7 @@
   <dimension ref="A1:I2305"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>

--- a/data/order.xlsx
+++ b/data/order.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\QQ下载文件\MathorCup大数据竞赛资料\代码\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C34B600E-856F-460F-81E1-0DDD3E0AC894}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3362B5B-B0A6-4709-997D-5C4B2233D206}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2268" yWindow="2268" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -461,8 +461,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I2305"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:I51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
